--- a/natmiOut/OldD7/LR-pairs_lrc2p/C3-Cr2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/C3-Cr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,60 +528,60 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.470138041467683</v>
+        <v>1.558564</v>
       </c>
       <c r="H2">
-        <v>0.470138041467683</v>
+        <v>4.675692</v>
       </c>
       <c r="I2">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J2">
-        <v>0.001779278815664694</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.901237569679896</v>
+        <v>0.4452923333333333</v>
       </c>
       <c r="N2">
-        <v>0.901237569679896</v>
+        <v>1.335877</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2633234518811916</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2633234518811915</v>
       </c>
       <c r="Q2">
-        <v>0.4237060659064008</v>
+        <v>0.6940166002093333</v>
       </c>
       <c r="R2">
-        <v>0.4237060659064008</v>
+        <v>6.246149401884</v>
       </c>
       <c r="S2">
-        <v>0.001779278815664694</v>
+        <v>0.001498863728168702</v>
       </c>
       <c r="T2">
-        <v>0.001779278815664694</v>
+        <v>0.001498863728168702</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -593,57 +593,57 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>252.361879689836</v>
+        <v>1.558564</v>
       </c>
       <c r="H3">
-        <v>252.361879689836</v>
+        <v>4.675692</v>
       </c>
       <c r="I3">
-        <v>0.9550857552638886</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J3">
-        <v>0.9550857552638886</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.901237569679896</v>
+        <v>0.9609030000000001</v>
       </c>
       <c r="N3">
-        <v>0.901237569679896</v>
+        <v>2.882709</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.5682296234226488</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.5682296234226488</v>
       </c>
       <c r="Q3">
-        <v>227.4380071315181</v>
+        <v>1.497628823292</v>
       </c>
       <c r="R3">
-        <v>227.4380071315181</v>
+        <v>13.478659409628</v>
       </c>
       <c r="S3">
-        <v>0.9550857552638886</v>
+        <v>0.003234420503508535</v>
       </c>
       <c r="T3">
-        <v>0.9550857552638886</v>
+        <v>0.003234420503508535</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>11.0635042290981</v>
+        <v>1.558564</v>
       </c>
       <c r="H4">
-        <v>11.0635042290981</v>
+        <v>4.675692</v>
       </c>
       <c r="I4">
-        <v>0.04187080594541537</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="J4">
-        <v>0.04187080594541537</v>
+        <v>0.005692101168584756</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.901237569679896</v>
+        <v>0.1019516666666667</v>
       </c>
       <c r="N4">
-        <v>0.901237569679896</v>
+        <v>0.305855</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.06028907929032525</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.06028907929032525</v>
       </c>
       <c r="Q4">
-        <v>9.970845663575624</v>
+        <v>0.1588981974066666</v>
       </c>
       <c r="R4">
-        <v>9.970845663575624</v>
+        <v>1.43008377666</v>
       </c>
       <c r="S4">
-        <v>0.04187080594541537</v>
+        <v>0.0003431715386813594</v>
       </c>
       <c r="T4">
-        <v>0.04187080594541537</v>
+        <v>0.0003431715386813594</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,799 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1.558564</v>
+      </c>
+      <c r="H5">
+        <v>4.675692</v>
+      </c>
+      <c r="I5">
+        <v>0.005692101168584756</v>
+      </c>
+      <c r="J5">
+        <v>0.005692101168584756</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.1829</v>
+      </c>
+      <c r="N5">
+        <v>0.5487</v>
+      </c>
+      <c r="O5">
+        <v>0.1081578454058344</v>
+      </c>
+      <c r="P5">
+        <v>0.1081578454058344</v>
+      </c>
+      <c r="Q5">
+        <v>0.2850613556</v>
+      </c>
+      <c r="R5">
+        <v>2.5655522004</v>
+      </c>
+      <c r="S5">
+        <v>0.0006156453982261591</v>
+      </c>
+      <c r="T5">
+        <v>0.0006156453982261591</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0.334028421813718</v>
-      </c>
-      <c r="H5">
-        <v>0.334028421813718</v>
-      </c>
-      <c r="I5">
-        <v>0.001264159975031318</v>
-      </c>
-      <c r="J5">
-        <v>0.001264159975031318</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>0.901237569679896</v>
-      </c>
-      <c r="N5">
-        <v>0.901237569679896</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.3010389630794064</v>
-      </c>
-      <c r="R5">
-        <v>0.3010389630794064</v>
-      </c>
-      <c r="S5">
-        <v>0.001264159975031318</v>
-      </c>
-      <c r="T5">
-        <v>0.001264159975031318</v>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>259.5505726666667</v>
+      </c>
+      <c r="H6">
+        <v>778.6517180000001</v>
+      </c>
+      <c r="I6">
+        <v>0.9479162344201305</v>
+      </c>
+      <c r="J6">
+        <v>0.9479162344201304</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.4452923333333333</v>
+      </c>
+      <c r="N6">
+        <v>1.335877</v>
+      </c>
+      <c r="O6">
+        <v>0.2633234518811916</v>
+      </c>
+      <c r="P6">
+        <v>0.2633234518811915</v>
+      </c>
+      <c r="Q6">
+        <v>115.5758801207429</v>
+      </c>
+      <c r="R6">
+        <v>1040.182921086686</v>
+      </c>
+      <c r="S6">
+        <v>0.2496085749417295</v>
+      </c>
+      <c r="T6">
+        <v>0.2496085749417294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>259.5505726666667</v>
+      </c>
+      <c r="H7">
+        <v>778.6517180000001</v>
+      </c>
+      <c r="I7">
+        <v>0.9479162344201305</v>
+      </c>
+      <c r="J7">
+        <v>0.9479162344201304</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9609030000000001</v>
+      </c>
+      <c r="N7">
+        <v>2.882709</v>
+      </c>
+      <c r="O7">
+        <v>0.5682296234226488</v>
+      </c>
+      <c r="P7">
+        <v>0.5682296234226488</v>
+      </c>
+      <c r="Q7">
+        <v>249.4029239271181</v>
+      </c>
+      <c r="R7">
+        <v>2244.626315344062</v>
+      </c>
+      <c r="S7">
+        <v>0.538634084920766</v>
+      </c>
+      <c r="T7">
+        <v>0.538634084920766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>259.5505726666667</v>
+      </c>
+      <c r="H8">
+        <v>778.6517180000001</v>
+      </c>
+      <c r="I8">
+        <v>0.9479162344201305</v>
+      </c>
+      <c r="J8">
+        <v>0.9479162344201304</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1019516666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.305855</v>
+      </c>
+      <c r="O8">
+        <v>0.06028907929032525</v>
+      </c>
+      <c r="P8">
+        <v>0.06028907929032525</v>
+      </c>
+      <c r="Q8">
+        <v>26.46161346765445</v>
+      </c>
+      <c r="R8">
+        <v>238.15452120889</v>
+      </c>
+      <c r="S8">
+        <v>0.05714899701754179</v>
+      </c>
+      <c r="T8">
+        <v>0.05714899701754178</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>259.5505726666667</v>
+      </c>
+      <c r="H9">
+        <v>778.6517180000001</v>
+      </c>
+      <c r="I9">
+        <v>0.9479162344201305</v>
+      </c>
+      <c r="J9">
+        <v>0.9479162344201304</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.1829</v>
+      </c>
+      <c r="N9">
+        <v>0.5487</v>
+      </c>
+      <c r="O9">
+        <v>0.1081578454058344</v>
+      </c>
+      <c r="P9">
+        <v>0.1081578454058344</v>
+      </c>
+      <c r="Q9">
+        <v>47.47179974073334</v>
+      </c>
+      <c r="R9">
+        <v>427.2461976666</v>
+      </c>
+      <c r="S9">
+        <v>0.1025245775400931</v>
+      </c>
+      <c r="T9">
+        <v>0.1025245775400931</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>12.18925266666667</v>
+      </c>
+      <c r="H10">
+        <v>36.567758</v>
+      </c>
+      <c r="I10">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="J10">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M10">
+        <v>0.4452923333333333</v>
+      </c>
+      <c r="N10">
+        <v>1.335877</v>
+      </c>
+      <c r="O10">
+        <v>0.2633234518811916</v>
+      </c>
+      <c r="P10">
+        <v>0.2633234518811915</v>
+      </c>
+      <c r="Q10">
+        <v>5.427780761529555</v>
+      </c>
+      <c r="R10">
+        <v>48.850026853766</v>
+      </c>
+      <c r="S10">
+        <v>0.01172234742721524</v>
+      </c>
+      <c r="T10">
+        <v>0.01172234742721524</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>12.18925266666667</v>
+      </c>
+      <c r="H11">
+        <v>36.567758</v>
+      </c>
+      <c r="I11">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="J11">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.9609030000000001</v>
+      </c>
+      <c r="N11">
+        <v>2.882709</v>
+      </c>
+      <c r="O11">
+        <v>0.5682296234226488</v>
+      </c>
+      <c r="P11">
+        <v>0.5682296234226488</v>
+      </c>
+      <c r="Q11">
+        <v>11.712689455158</v>
+      </c>
+      <c r="R11">
+        <v>105.414205096422</v>
+      </c>
+      <c r="S11">
+        <v>0.02529582920400622</v>
+      </c>
+      <c r="T11">
+        <v>0.02529582920400622</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>12.18925266666667</v>
+      </c>
+      <c r="H12">
+        <v>36.567758</v>
+      </c>
+      <c r="I12">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="J12">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.1019516666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.305855</v>
+      </c>
+      <c r="O12">
+        <v>0.06028907929032525</v>
+      </c>
+      <c r="P12">
+        <v>0.06028907929032525</v>
+      </c>
+      <c r="Q12">
+        <v>1.242714624787778</v>
+      </c>
+      <c r="R12">
+        <v>11.18443162309</v>
+      </c>
+      <c r="S12">
+        <v>0.002683883750039051</v>
+      </c>
+      <c r="T12">
+        <v>0.002683883750039051</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>12.18925266666667</v>
+      </c>
+      <c r="H13">
+        <v>36.567758</v>
+      </c>
+      <c r="I13">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="J13">
+        <v>0.04451691386950307</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.1829</v>
+      </c>
+      <c r="N13">
+        <v>0.5487</v>
+      </c>
+      <c r="O13">
+        <v>0.1081578454058344</v>
+      </c>
+      <c r="P13">
+        <v>0.1081578454058344</v>
+      </c>
+      <c r="Q13">
+        <v>2.229414312733333</v>
+      </c>
+      <c r="R13">
+        <v>20.0647288146</v>
+      </c>
+      <c r="S13">
+        <v>0.004814853488242557</v>
+      </c>
+      <c r="T13">
+        <v>0.004814853488242557</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5133286666666667</v>
+      </c>
+      <c r="H14">
+        <v>1.539986</v>
+      </c>
+      <c r="I14">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="J14">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M14">
+        <v>0.4452923333333333</v>
+      </c>
+      <c r="N14">
+        <v>1.335877</v>
+      </c>
+      <c r="O14">
+        <v>0.2633234518811916</v>
+      </c>
+      <c r="P14">
+        <v>0.2633234518811915</v>
+      </c>
+      <c r="Q14">
+        <v>0.2285813197468889</v>
+      </c>
+      <c r="R14">
+        <v>2.057231877722</v>
+      </c>
+      <c r="S14">
+        <v>0.0004936657840780803</v>
+      </c>
+      <c r="T14">
+        <v>0.00049366578407808</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5133286666666667</v>
+      </c>
+      <c r="H15">
+        <v>1.539986</v>
+      </c>
+      <c r="I15">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="J15">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.9609030000000001</v>
+      </c>
+      <c r="N15">
+        <v>2.882709</v>
+      </c>
+      <c r="O15">
+        <v>0.5682296234226488</v>
+      </c>
+      <c r="P15">
+        <v>0.5682296234226488</v>
+      </c>
+      <c r="Q15">
+        <v>0.493259055786</v>
+      </c>
+      <c r="R15">
+        <v>4.439331502074</v>
+      </c>
+      <c r="S15">
+        <v>0.001065288794367998</v>
+      </c>
+      <c r="T15">
+        <v>0.001065288794367998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5133286666666667</v>
+      </c>
+      <c r="H16">
+        <v>1.539986</v>
+      </c>
+      <c r="I16">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="J16">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M16">
+        <v>0.1019516666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.305855</v>
+      </c>
+      <c r="O16">
+        <v>0.06028907929032525</v>
+      </c>
+      <c r="P16">
+        <v>0.06028907929032525</v>
+      </c>
+      <c r="Q16">
+        <v>0.05233471311444444</v>
+      </c>
+      <c r="R16">
+        <v>0.4710124180299999</v>
+      </c>
+      <c r="S16">
+        <v>0.0001130269840630546</v>
+      </c>
+      <c r="T16">
+        <v>0.0001130269840630546</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.5133286666666667</v>
+      </c>
+      <c r="H17">
+        <v>1.539986</v>
+      </c>
+      <c r="I17">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="J17">
+        <v>0.001874750541781658</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.1829</v>
+      </c>
+      <c r="N17">
+        <v>0.5487</v>
+      </c>
+      <c r="O17">
+        <v>0.1081578454058344</v>
+      </c>
+      <c r="P17">
+        <v>0.1081578454058344</v>
+      </c>
+      <c r="Q17">
+        <v>0.09388781313333332</v>
+      </c>
+      <c r="R17">
+        <v>0.8449903181999998</v>
+      </c>
+      <c r="S17">
+        <v>0.0002027689792725248</v>
+      </c>
+      <c r="T17">
+        <v>0.0002027689792725248</v>
       </c>
     </row>
   </sheetData>
